--- a/Second semester/neural network/HW1/lbl2.xlsx
+++ b/Second semester/neural network/HW1/lbl2.xlsx
@@ -464,7 +464,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -779,7 +779,7 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -789,7 +789,7 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1">
@@ -914,7 +914,7 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -1164,7 +1164,7 @@
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1">
@@ -1209,7 +1209,7 @@
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:1">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:1">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:1">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -1604,7 +1604,7 @@
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -1694,7 +1694,7 @@
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:1">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:1">
@@ -1769,7 +1769,7 @@
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:1">
@@ -2004,7 +2004,7 @@
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:1">
@@ -2124,47 +2124,47 @@
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:1">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:1">
@@ -2184,22 +2184,22 @@
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:1">
@@ -2209,12 +2209,12 @@
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:1">
@@ -2224,52 +2224,52 @@
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:1">
@@ -2294,7 +2294,7 @@
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:1">
@@ -2349,12 +2349,12 @@
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:1">
@@ -2379,12 +2379,12 @@
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:1">
@@ -2394,7 +2394,7 @@
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:1">
@@ -2424,12 +2424,12 @@
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:1">
@@ -2439,7 +2439,7 @@
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:1">
@@ -2464,17 +2464,17 @@
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:1">
@@ -2484,7 +2484,7 @@
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:1">
@@ -2504,12 +2504,12 @@
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:1">
@@ -2539,12 +2539,12 @@
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:1">
@@ -2559,7 +2559,7 @@
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:1">
@@ -2599,7 +2599,7 @@
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:1">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -2689,7 +2689,7 @@
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:1">
@@ -2714,7 +2714,7 @@
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:1">
@@ -2724,7 +2724,7 @@
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:1">
@@ -2734,7 +2734,7 @@
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:1">
@@ -2794,12 +2794,12 @@
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1">
@@ -2809,7 +2809,7 @@
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:1">
@@ -2839,7 +2839,7 @@
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:1">
@@ -2849,7 +2849,7 @@
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:1">
@@ -2914,7 +2914,7 @@
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:1">
@@ -2924,7 +2924,7 @@
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:1">
@@ -2939,12 +2939,12 @@
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:1">
@@ -3009,7 +3009,7 @@
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:1">
@@ -3019,12 +3019,12 @@
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -3034,117 +3034,117 @@
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:1">
@@ -3154,17 +3154,17 @@
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:1">
@@ -3174,27 +3174,27 @@
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:1">
@@ -3209,12 +3209,12 @@
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:1">
@@ -3329,7 +3329,7 @@
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:1">
@@ -3444,7 +3444,7 @@
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:1">
@@ -3624,7 +3624,7 @@
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:1">
@@ -3744,7 +3744,7 @@
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1">
@@ -3769,7 +3769,7 @@
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:1">
@@ -3804,7 +3804,7 @@
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:1">
@@ -3884,7 +3884,7 @@
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:1">
@@ -4069,7 +4069,7 @@
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:1">
@@ -4674,7 +4674,7 @@
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:1">
@@ -4974,7 +4974,7 @@
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:1">
@@ -5159,7 +5159,7 @@
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:1">
@@ -5229,7 +5229,7 @@
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:1">
@@ -5349,7 +5349,7 @@
     </row>
     <row r="996" spans="1:1">
       <c r="A996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:1">
@@ -6584,7 +6584,7 @@
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
@@ -6894,7 +6894,7 @@
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
@@ -6959,7 +6959,7 @@
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
@@ -7079,7 +7079,7 @@
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
@@ -7154,7 +7154,7 @@
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
@@ -7214,7 +7214,7 @@
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
@@ -7619,7 +7619,7 @@
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
@@ -7734,7 +7734,7 @@
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
@@ -7879,7 +7879,7 @@
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
@@ -8314,7 +8314,7 @@
     </row>
     <row r="1589" spans="1:1">
       <c r="A1589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1590" spans="1:1">
